--- a/数据整理/stocks/港股/02313-申洲国际.xlsx
+++ b/数据整理/stocks/港股/02313-申洲国际.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,972 +512,1322 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>103.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.78</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5889</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8517</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9695</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7649</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5388</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4911</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4171</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>006127</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>94.72</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>159803</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>易方达中证浙江新动能ETF（QDII）</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>96.88</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>169105</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006786</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006787</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009733</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>87.69</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>4.25</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009734</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009896</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发港股通成长精选股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>61.76</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009897</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发港股通成长精选股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>61.76</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002121</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009181</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙商智多兴稳健回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20.81</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009182</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙商智多兴稳健回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>20.81</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008263</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>东方红品质优选两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>25.10</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008861</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010093</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002443</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005335</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>浙商全景消费混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006537</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>恒生前海港股通精选混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007151</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>前海开源沪港深聚瑞混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008174</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国泰蓝筹精选混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008175</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国泰蓝筹精选混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002230</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009210</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009211</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1477,7 +1837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,15 +1858,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002121</t>
+          <t>009265</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票A</t>
+          <t>易方达消费精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>85.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>010340</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>易方达高质量严选三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>141.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>002121</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>广发沪港深新起点股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1561</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008263</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方红品质优选两年定期开放混合</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>95.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001837</t>
+          <t>009896</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+          <t>广发港股通成长精选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>77.90</t>
+          <t>59.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8414</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002443</t>
+          <t>160322</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
+          <t>华夏港股通精选股票(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>37.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3749</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002662</t>
+          <t>001837</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深大消费主题混合A</t>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.57</t>
+          <t>66.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0828</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002663</t>
+          <t>009864</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源沪港深大消费主题混合C</t>
+          <t>招商景气优选股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.57</t>
+          <t>55.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>44.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8204</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009265</t>
+          <t>010264</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达消费精选股票</t>
+          <t>鹏华成长智选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>100.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009864</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商景气优选股票A</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.42</t>
+          <t>20.41</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0327</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009865</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商景气优选股票C</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>44.42</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009896</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票A</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9105</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009897</t>
+          <t>008174</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票C</t>
+          <t>国泰蓝筹精选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8741</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7502</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010264</t>
+          <t>010583</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华成长智选混合A</t>
+          <t>富国蓝筹精选股票（QDII）美元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50.54</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6599</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010265</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华成长智选混合C</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>50.54</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6599</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010340</t>
+          <t>009897</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>易方达高质量严选三年持有期混合</t>
+          <t>广发港股通成长精选股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.94</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6354</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5691</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>009865</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>招商景气优选股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>44.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5139</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2050,25 +2610,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006786</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数A</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4501</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006787</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数C</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3669</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>008075</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>招商核心优选股票A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>008263</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>东方红品质优选两年定期开放混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010583</t>
+          <t>011117</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
+          <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010644</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）人民币</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2218,25 +2838,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010645</t>
+          <t>010644</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）美元</t>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>84.44</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>3.85</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007151</t>
+          <t>010645</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>前海开源沪港深聚瑞混合</t>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>010265</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>鹏华成长智选混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>002443</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>159803</t>
+          <t>007151</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>易方达中证浙江新动能ETF（QDII）</t>
+          <t>前海开源沪港深聚瑞混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>96.75</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>008175</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>国泰蓝筹精选混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>519696</t>
+          <t>002230</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>交银施罗德环球精选价值混合(QDII)</t>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
+          <t>69.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>008519</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>中金中证沪港深优选消费50指数A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>85.89</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002230</t>
+          <t>002662</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+          <t>前海开源沪港深大消费主题混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>69.99</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>005847</t>
+          <t>006786</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合A</t>
+          <t>泰康中证港股通大消费主题指数A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>011117</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合C</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>008075</t>
+          <t>519696</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>招商核心优选股票A</t>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>5</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>008076</t>
+          <t>002663</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>招商核心优选股票C</t>
+          <t>前海开源沪港深大消费主题混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>5</v>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2638,25 +3408,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>008174</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国泰蓝筹精选混合A</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>008175</t>
+          <t>008076</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国泰蓝筹精选混合C</t>
+          <t>招商核心优选股票C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>7</v>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>008519</t>
+          <t>006787</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中金中证沪港深优选消费50指数A</t>
+          <t>泰康中证港股通大消费主题指数C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>9</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2722,25 +3522,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>008520</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中金中证沪港深优选消费50指数C</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>008520</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>中金中证沪港深优选消费50指数C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>009733</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>创金合信港股通大消费精选股票A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2806,26 +3636,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>009733</t>
+          <t>159803</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票A</t>
+          <t>易方达中证浙江新动能ETF（QDII）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>6</v>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2844,15 +3684,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>90.78</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>5.04</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02313-申洲国际.xlsx
+++ b/数据整理/stocks/港股/02313-申洲国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3709,4 +3710,1960 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>155.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6447</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4932</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0134</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9728</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8441</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7191</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1912</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9643</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8511</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8187</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6752</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>57.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6529</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4535</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159803</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证浙江新动能ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02313-申洲国际.xlsx
+++ b/数据整理/stocks/港股/02313-申洲国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5666,4 +5667,1276 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>135.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8408</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6668</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>69.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6386</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3544</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7712</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5978</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>163813</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银全球策略(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02313-申洲国际.xlsx
+++ b/数据整理/stocks/港股/02313-申洲国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6939,4 +6940,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02313-申洲国际.xlsx
+++ b/数据整理/stocks/港股/02313-申洲国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6948,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6959,17 +6960,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6979,14 +7000,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.7</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6995,14 +7038,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.29</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7395</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7011,14 +7076,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46.28</v>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3591</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7027,13 +7114,1025 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4555</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3350</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2625</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>23.17</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02313-申洲国际.xlsx
+++ b/数据整理/stocks/港股/02313-申洲国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8031,7 +8032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8042,17 +8043,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8062,14 +8083,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.25</v>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8078,14 +8121,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.7</v>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -8094,14 +8159,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.29</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8110,14 +8197,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>48</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46.28</v>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6374</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -8126,13 +8235,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5594</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>35</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>23.17</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02313-申洲国际.xlsx
+++ b/数据整理/stocks/港股/02313-申洲国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8582,7 +8583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8593,17 +8594,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8613,14 +8634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.01</v>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8629,14 +8672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.25</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8645,14 +8710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.7</v>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8661,14 +8748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>44.29</v>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8677,14 +8786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>48</v>
-      </c>
-      <c r="D6" t="n">
-        <v>46.28</v>
+          <t>010890</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -8693,13 +8824,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>48</v>
+      </c>
+      <c r="D7" t="n">
+        <v>46.28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>23.17</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02313-申洲国际.xlsx
+++ b/数据整理/stocks/港股/02313-申洲国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>4.51</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>8.01</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>22.25</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>30.7</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>44.29</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>46.28</v>
+        <v>44.29</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>48</v>
+      </c>
+      <c r="D8" t="n">
+        <v>46.28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>35</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>23.17</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2725</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1509,7 +1810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2591,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3863,7 +4164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5819,7 +6120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7699,7 +8000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02313-申洲国际.xlsx
+++ b/数据整理/stocks/港股/02313-申洲国际.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>2.64</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.51</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>8.01</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>22.25</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>30.7</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>44.29</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>46.28</v>
+        <v>44.29</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1416 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>48</v>
+      </c>
+      <c r="D9" t="n">
+        <v>46.28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>35</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>23.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5889</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8517</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9695</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7649</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5388</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4911</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4171</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159803</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证浙江新动能ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2020,1086 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6629</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5287</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3904</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>017627</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012309</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015768</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +3383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1260,7 +3743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1810,7 +4293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2892,7 +5375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4164,7 +6647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6120,7 +8603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7998,1390 +10481,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009265</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达消费精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>103.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.5013</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009896</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发港股通成长精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>86.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>61.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.7032</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002121</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>55.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.5889</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>169105</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>41.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.8517</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0236</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009210</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>19.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9695</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008174</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰蓝筹精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7649</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5388</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4911</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009897</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发港股通成长精选股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>61.76</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4171</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.34</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3690</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3432</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008263</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东方红品质优选两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>25.48</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>25.10</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2930</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2830</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005335</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浙商全景消费混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1920</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1596</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009211</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1290</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009181</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>浙商智多兴稳健回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>20.81</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0755</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0624</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006537</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>恒生前海港股通精选混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0518</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002443</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008175</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国泰蓝筹精选混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0461</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002230</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0409</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007151</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>前海开源沪港深聚瑞混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0384</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009182</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>浙商智多兴稳健回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.81</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006127</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0289</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008861</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006786</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006787</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>159803</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>易方达中证浙江新动能ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>96.88</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010093</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009733</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009734</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>